--- a/client_account/test_Excel/結合テスト.xlsx
+++ b/client_account/test_Excel/結合テスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\task\task-nakano\account\client_account\test_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C550AAAD-3E83-4B8B-85E3-215619F2241F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3749A7-6428-4E5D-868B-607E20DDF9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6BD81FF0-63B2-45D1-854B-750557B6C88F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -83,53 +83,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ページ表示</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブラウザにHTMLファイルで表示する</t>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ページが正常に表示される</t>
-    <rPh sb="4" eb="6">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PC/ブラウザ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面変移</t>
+    <t>結合テスト[アカウント登録画面～アカウント登録確認画面]</t>
     <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヘンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>regist.phpをリンク付けしたアカウント登録ボタンを押す</t>
-    <rPh sb="14" eb="15">
-      <t>ヅ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
       <t>トウロク</t>
     </rPh>
-    <rPh sb="29" eb="30">
-      <t>オ</t>
+    <rPh sb="23" eb="27">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -198,11 +174,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,84 +501,303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5EF0E2-AFE7-43E6-9AD7-26D8C7607EEC}">
-  <dimension ref="A2:H4"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>11</v>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/client_account/test_Excel/結合テスト.xlsx
+++ b/client_account/test_Excel/結合テスト.xlsx
@@ -8,26 +8,57 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\task\task-nakano\account\client_account\test_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3749A7-6428-4E5D-868B-607E20DDF9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93C652D-0B3D-46D3-B558-8EA1AE5D1C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{6BD81FF0-63B2-45D1-854B-750557B6C88F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="テストケース１" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">テストケース１!$A$4:$F$4</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>#</t>
+    <t>実施日</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＃</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト…アカウント登録画面～アカウント登録確認画面</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>カクニンガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -38,13 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>操作手順</t>
-    <rPh sb="0" eb="4">
-      <t>ソウサテジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>期待する動作</t>
     <rPh sb="0" eb="2">
       <t>キタイ</t>
@@ -56,22 +80,11 @@
   </si>
   <si>
     <t>確認者</t>
-    <rPh sb="0" eb="3">
-      <t>カクニンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認日付</t>
-    <rPh sb="0" eb="4">
-      <t>カクニンヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
     <rPh sb="0" eb="2">
-      <t>ビコウ</t>
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -83,29 +96,43 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PC/ブラウザ</t>
+    <t>ブラウザ/PC</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>結合テスト[アカウント登録画面～アカウント登録確認画面]</t>
+    <t>名前（性）入力フォーム</t>
     <rPh sb="0" eb="2">
-      <t>ケツゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="15">
-      <t>トウロクガメン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>カクニンガメン</t>
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力フォーム</t>
+    <t>名前（名）入力フォーム</t>
     <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（セイ）入力フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前（メイ）入力フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -114,21 +141,41 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -140,12 +187,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -155,8 +202,34 @@
     </border>
     <border>
       <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -169,30 +242,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="日付" xfId="1" xr:uid="{F34E89F7-D99A-4055-A58F-D5F2B96D359E}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+      <color rgb="FF669900"/>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFF9999"/>
+      <color rgb="FFEFF6FB"/>
+      <color rgb="FFF9FBFD"/>
+      <color rgb="FFFAFEF8"/>
+      <color rgb="FFF0FCFE"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -500,308 +621,1182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5EF0E2-AFE7-43E6-9AD7-26D8C7607EEC}">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
+  <dimension ref="A2:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.453125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="B7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="2">
+      <c r="B15" s="10"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="2">
+      <c r="B16" s="10"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2">
+      <c r="B17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="2">
+      <c r="B18" s="10"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="2">
+      <c r="B19" s="10"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="2">
+      <c r="B20" s="10"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>26</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>27</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>29</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>32</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>36</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>37</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>38</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>39</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>40</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>41</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>42</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>43</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>44</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>45</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>46</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>47</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>48</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>49</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>50</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>51</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>52</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>53</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>54</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>55</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>56</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>57</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>58</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>59</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>60</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>61</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>62</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>63</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>64</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>65</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>66</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>67</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>68</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>69</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>70</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>71</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>72</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>73</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>74</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>75</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>76</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>77</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>78</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>79</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>80</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>81</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>82</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>83</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>84</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>85</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>86</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>87</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>88</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>89</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>90</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>91</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>92</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>93</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>94</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>95</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>96</v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>97</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>98</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>99</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>100</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;R&amp;D - &amp;T</oddHeader>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/client_account/test_Excel/結合テスト.xlsx
+++ b/client_account/test_Excel/結合テスト.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\task\task-nakano\account\client_account\test_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93C652D-0B3D-46D3-B558-8EA1AE5D1C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA6D9B-3312-4769-8C51-9C82259FE485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース１" sheetId="3" r:id="rId1"/>
+    <sheet name="テストケース２" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">テストケース１!$A$4:$F$4</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="70">
   <si>
     <t>実施日</t>
     <rPh sb="0" eb="3">
@@ -123,16 +124,818 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名前（セイ）入力フォーム</t>
+    <t>カナ（性）入力フォーム</t>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カナ（名）入力フォーム</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス入力フォーム</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード入力フォーム</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>郵便番号欄入力フォーム</t>
+    <rPh sb="0" eb="5">
+      <t>ユウビンバンゴウラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別選択ボタン</t>
     <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（都道府県）選択プルダウンメニュー</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（市区町村）入力フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所（番地）入力フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限選択プルダウンメニュー</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"確認する"ボタン</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな・漢字で入力されたデータがアカウント登録確認画面の名前（性）の右側に表示される</t>
+    <rPh sb="5" eb="7">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="28">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
       <t>ナマエ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前（メイ）入力フォーム</t>
+    <rPh sb="32" eb="33">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな・漢字で入力されたデータがアカウント登録確認画面の名前（名）の右側に表示される</t>
+    <rPh sb="5" eb="7">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="28">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角カタカナで入力されたデータがアカウント登録確認画面のカナ（性）の右側に表示される</t>
     <rPh sb="0" eb="2">
-      <t>ナマエ</t>
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="27">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角カタカナで入力されたデータがアカウント登録確認画面のカナ（名）の右側に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="27">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角ハイフンと"@"を含めた半角英数字ので入力されたデータがアカウント登録確認画面のメールアドレスの右側に表示される</t>
+  </si>
+  <si>
+    <t>選択された性別がアカウント登録確認画面の性別の右側に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="13" eb="19">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大10文字の半角英数字でで入力されたデータがアカウント登録確認画面のパスワードの右側に表示される</t>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="34">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大7文字の半角数字でで入力されたデータがアカウント登録確認画面の郵便番号の右側に表示される</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="26" eb="32">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="33" eb="37">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された都道府県がアカウント登録確認画面の住所（都道府県）の右側に表示される</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="15" eb="21">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）を含めて入力されたデータがアカウント登録確認画面の住所（番地）の右側に表示される</t>
+  </si>
+  <si>
+    <t>ひらがな、漢字、数字、カタカナ、記号（ハイフンとスペース）を含めて入力されたデータがアカウント登録確認画面の住所（市区町村）の右側に表示される</t>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="47" eb="53">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>シクチョウソン</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンメニューから選択された一般か管理者がアカウント登録確認画面のアカウント権限の右側に表示される</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="28" eb="34">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認するボタンが押されると、アカウント登録確認画面にページが遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="19" eb="25">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中野</t>
+    <rPh sb="0" eb="2">
+      <t>ナカノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"登録する"ボタン</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認するボタンが押されると、phpmyadminのuser_infoに全てのデータが登録される</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"戻る"ボタン</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻るボタンが押されると、アカウント登録確認画面で表示されている全てのデータがアカウント登録画面に表示される</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="23">
+      <t>トウロクカクニンガメン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ保持</t>
+    <rPh sb="3" eb="5">
+      <t>ホジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページを遷移させても入力されたデータが保持され、画面が戻ってきたときに入力された状態のまま</t>
+    <rPh sb="4" eb="6">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空欄チェック</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1つでも空欄がある状態で確認するボタンが押されると、データが空欄の入力フォームの下に赤字で"○○が未入力です"とエラーメッセージが表示される</t>
+    <rPh sb="4" eb="6">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不適切な文字列チェック</t>
+    <rPh sb="0" eb="3">
+      <t>フテキセツ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>指定された文字列以外でデータが入力され確認ボタンが押されたとき、その項目の下にエラーメッセージを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな・漢字で入力されたデータがデータベースに登録される</t>
+    <rPh sb="5" eb="7">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合テスト…アカウント登録確認画面～データベース</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな・漢字で入力されたデータがデータベースに登録される</t>
+    <rPh sb="5" eb="7">
+      <t>カンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全角カタカナで入力されたデータがデータベースに登録される</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角ハイフンと"@"を含めた半角英数字ので入力されたデータがデータベースに登録される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された性別がデータベースに登録される</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大7文字の半角数字でで入力されたデータがデータベースに登録される</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された都道府県がデータベースに登録される</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンメニューから選択された一般か管理者がデータベースに登録される</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時チェック</t>
+    <rPh sb="0" eb="4">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースにデータが登録された際、登録された時の日時が一緒にデータベースのregistared_timeに登録される</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日時チェック</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル内のデータを更新した際にupdate_timeに自動的に更新日時が登録される</t>
+    <rPh sb="4" eb="5">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データベースにアカウントが登録された際に、初期値を無効を意味する1で登録する</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イミ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大10文字の半角英数字でで入力されたデータがハッシュ化されデータベースに登録される</t>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな、漢字、半角数字、カタカナ、記号（ハイフンとスペース）を含めて入力されたデータがデータベースに登録される</t>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひらがな、漢字、半角数字、カタカナ、記号（ハイフンとスペース）を含めて入力されたデータがデータベースに登録される</t>
+    <rPh sb="8" eb="10">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施日</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドットから始まる文字列でもデータが登録される</t>
+    <rPh sb="5" eb="6">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ登録時データベースにはNULLの表記があり、登録日時が自動で登録されていない</t>
+    <rPh sb="3" eb="6">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>トウロクニチジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグを更新しても、更新日時が自動で登録されていない</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>コウシンニチジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ登録時にカラム内のデータがNULLで表記されている</t>
+    <rPh sb="3" eb="6">
+      <t>トウロクジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドットから始める文字列にエラーメッセージが表示されない</t>
+    <rPh sb="5" eb="6">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -145,7 +948,7 @@
     <numFmt numFmtId="176" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -177,6 +980,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -192,7 +1002,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -241,6 +1051,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -250,7 +1075,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -284,14 +1109,32 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -624,31 +1467,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BE540C-CFE4-46E4-83A9-C3F67209797D}">
   <dimension ref="A2:G104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.36328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.90625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="11.7265625" style="2" customWidth="1"/>
     <col min="6" max="6" width="44.453125" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
@@ -661,7 +1503,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>6</v>
@@ -673,189 +1515,339 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="6"/>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="C7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="52.5" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="B15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="B16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="B18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="18">
+        <v>45251</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
     </row>
@@ -865,7 +1857,7 @@
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="E21" s="6"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
@@ -876,7 +1868,7 @@
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="6"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
@@ -887,7 +1879,7 @@
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="E23" s="6"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -898,7 +1890,7 @@
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="E24" s="6"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
@@ -909,7 +1901,7 @@
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="6"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
@@ -920,7 +1912,7 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="6"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -931,7 +1923,7 @@
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
+      <c r="D27" s="5"/>
       <c r="E27" s="6"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
@@ -942,7 +1934,7 @@
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="6"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -953,7 +1945,7 @@
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="6"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -964,7 +1956,7 @@
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="6"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
@@ -975,7 +1967,7 @@
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="6"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
@@ -986,7 +1978,7 @@
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="6"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="6"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
@@ -997,7 +1989,7 @@
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="6"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
@@ -1008,7 +2000,7 @@
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="6"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -1019,7 +2011,7 @@
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="6"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -1030,7 +2022,7 @@
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="6"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -1041,7 +2033,7 @@
       </c>
       <c r="B37" s="10"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="6"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="6"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
@@ -1052,7 +2044,7 @@
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="6"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -1063,7 +2055,7 @@
       </c>
       <c r="B39" s="10"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="6"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -1074,7 +2066,7 @@
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="6"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -1085,7 +2077,7 @@
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="6"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="6"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -1096,7 +2088,7 @@
       </c>
       <c r="B42" s="10"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="6"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -1107,7 +2099,7 @@
       </c>
       <c r="B43" s="10"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="6"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="6"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -1118,7 +2110,7 @@
       </c>
       <c r="B44" s="10"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="6"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="6"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -1129,7 +2121,7 @@
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="6"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -1140,7 +2132,7 @@
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="6"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -1151,7 +2143,7 @@
       </c>
       <c r="B47" s="10"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="6"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="6"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -1162,7 +2154,7 @@
       </c>
       <c r="B48" s="10"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="6"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -1173,7 +2165,7 @@
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="6"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -1184,7 +2176,7 @@
       </c>
       <c r="B50" s="10"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="6"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="6"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
@@ -1195,7 +2187,7 @@
       </c>
       <c r="B51" s="10"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="6"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -1206,7 +2198,7 @@
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="6"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -1217,7 +2209,7 @@
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="6"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="6"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -1228,7 +2220,7 @@
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="6"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="6"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -1239,7 +2231,7 @@
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="6"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -1250,7 +2242,7 @@
       </c>
       <c r="B56" s="10"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="6"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -1261,7 +2253,7 @@
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="6"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -1272,7 +2264,7 @@
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="6"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -1283,7 +2275,7 @@
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="6"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -1294,7 +2286,7 @@
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="6"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -1305,7 +2297,7 @@
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="6"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -1316,7 +2308,7 @@
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="6"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -1327,7 +2319,7 @@
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="6"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
@@ -1338,7 +2330,7 @@
       </c>
       <c r="B64" s="10"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="6"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
@@ -1349,7 +2341,7 @@
       </c>
       <c r="B65" s="10"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="6"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
@@ -1360,7 +2352,7 @@
       </c>
       <c r="B66" s="10"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="6"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -1371,7 +2363,7 @@
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="6"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -1382,7 +2374,7 @@
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="6"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="6"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
@@ -1393,7 +2385,7 @@
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="6"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -1404,7 +2396,7 @@
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="6"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -1415,7 +2407,7 @@
       </c>
       <c r="B71" s="10"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="6"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="6"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -1426,7 +2418,7 @@
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="6"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
@@ -1437,7 +2429,7 @@
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="5"/>
       <c r="E73" s="6"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -1448,7 +2440,7 @@
       </c>
       <c r="B74" s="10"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="6"/>
+      <c r="D74" s="5"/>
       <c r="E74" s="6"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -1459,7 +2451,7 @@
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
+      <c r="D75" s="5"/>
       <c r="E75" s="6"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -1470,7 +2462,7 @@
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="5"/>
       <c r="E76" s="6"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -1481,7 +2473,7 @@
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="5"/>
       <c r="E77" s="6"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -1492,7 +2484,7 @@
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="5"/>
       <c r="E78" s="6"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -1503,7 +2495,7 @@
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="5"/>
       <c r="E79" s="6"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -1514,7 +2506,7 @@
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="6"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="6"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -1525,7 +2517,7 @@
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="6"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -1536,7 +2528,7 @@
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="5"/>
-      <c r="D82" s="6"/>
+      <c r="D82" s="5"/>
       <c r="E82" s="6"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
@@ -1547,7 +2539,7 @@
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="6"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
@@ -1558,7 +2550,7 @@
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="5"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="6"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -1569,7 +2561,7 @@
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="5"/>
-      <c r="D85" s="6"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="6"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -1580,7 +2572,7 @@
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="6"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="6"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -1591,7 +2583,7 @@
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="6"/>
+      <c r="D87" s="5"/>
       <c r="E87" s="6"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -1602,7 +2594,7 @@
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="5"/>
       <c r="E88" s="6"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
@@ -1613,7 +2605,7 @@
       </c>
       <c r="B89" s="10"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="6"/>
+      <c r="D89" s="5"/>
       <c r="E89" s="6"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
@@ -1624,7 +2616,7 @@
       </c>
       <c r="B90" s="10"/>
       <c r="C90" s="5"/>
-      <c r="D90" s="6"/>
+      <c r="D90" s="5"/>
       <c r="E90" s="6"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
@@ -1635,7 +2627,7 @@
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="5"/>
-      <c r="D91" s="6"/>
+      <c r="D91" s="5"/>
       <c r="E91" s="6"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
@@ -1646,7 +2638,7 @@
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="5"/>
-      <c r="D92" s="6"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="6"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
@@ -1657,7 +2649,7 @@
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="5"/>
-      <c r="D93" s="6"/>
+      <c r="D93" s="5"/>
       <c r="E93" s="6"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
@@ -1668,7 +2660,7 @@
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="6"/>
+      <c r="D94" s="5"/>
       <c r="E94" s="6"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -1679,7 +2671,7 @@
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="5"/>
-      <c r="D95" s="6"/>
+      <c r="D95" s="5"/>
       <c r="E95" s="6"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
@@ -1690,7 +2682,7 @@
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="5"/>
-      <c r="D96" s="6"/>
+      <c r="D96" s="5"/>
       <c r="E96" s="6"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
@@ -1701,7 +2693,7 @@
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="5"/>
-      <c r="D97" s="6"/>
+      <c r="D97" s="5"/>
       <c r="E97" s="6"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
@@ -1712,7 +2704,7 @@
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="5"/>
-      <c r="D98" s="6"/>
+      <c r="D98" s="5"/>
       <c r="E98" s="6"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
@@ -1723,7 +2715,7 @@
       </c>
       <c r="B99" s="10"/>
       <c r="C99" s="5"/>
-      <c r="D99" s="6"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="6"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
@@ -1734,7 +2726,7 @@
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="5"/>
-      <c r="D100" s="6"/>
+      <c r="D100" s="5"/>
       <c r="E100" s="6"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
@@ -1745,7 +2737,7 @@
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="5"/>
-      <c r="D101" s="6"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="6"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
@@ -1756,7 +2748,7 @@
       </c>
       <c r="B102" s="10"/>
       <c r="C102" s="5"/>
-      <c r="D102" s="6"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="6"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
@@ -1767,7 +2759,7 @@
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="5"/>
-      <c r="D103" s="6"/>
+      <c r="D103" s="5"/>
       <c r="E103" s="6"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
@@ -1778,7 +2770,7 @@
       </c>
       <c r="B104" s="10"/>
       <c r="C104" s="5"/>
-      <c r="D104" s="6"/>
+      <c r="D104" s="5"/>
       <c r="E104" s="6"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -1788,7 +2780,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1799,4 +2791,1337 @@
     <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAAEF61-201C-4F74-A496-890FB4576ABC}">
+  <dimension ref="A2:G104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.36328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.90625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="13.36328125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.36328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="35" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="35" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="35" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="35" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="35" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="35" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="35" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="35" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="35" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="35" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="35" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>17</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="17">
+        <v>45251</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>19</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>20</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>21</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>22</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>23</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>24</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>25</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>26</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>27</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>28</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>29</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>30</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>31</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>32</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>33</v>
+      </c>
+      <c r="B37" s="10"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>34</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>35</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>36</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>37</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>38</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>39</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>40</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>41</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>42</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>43</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>44</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>45</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>46</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>47</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>48</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <v>49</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <v>50</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <v>51</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <v>52</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>53</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>54</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>55</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <v>56</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <v>57</v>
+      </c>
+      <c r="B61" s="10"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <v>58</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <v>59</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <v>60</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <v>61</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <v>62</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <v>63</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <v>64</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <v>65</v>
+      </c>
+      <c r="B69" s="10"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <v>66</v>
+      </c>
+      <c r="B70" s="10"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <v>67</v>
+      </c>
+      <c r="B71" s="10"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <v>68</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <v>69</v>
+      </c>
+      <c r="B73" s="10"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <v>70</v>
+      </c>
+      <c r="B74" s="10"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <v>71</v>
+      </c>
+      <c r="B75" s="10"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <v>72</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <v>73</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <v>74</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <v>75</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <v>76</v>
+      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <v>77</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <v>78</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <v>79</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <v>80</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <v>81</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>82</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <v>83</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <v>84</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <v>85</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <v>86</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <v>87</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>88</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <v>89</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <v>90</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <v>91</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>92</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <v>93</v>
+      </c>
+      <c r="B97" s="10"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <v>94</v>
+      </c>
+      <c r="B98" s="10"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>95</v>
+      </c>
+      <c r="B99" s="10"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>96</v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>97</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>98</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>99</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>100</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4:B4" xr:uid="{316DFA68-5560-46F8-8923-D5C602E6A079}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>